--- a/artfynd/A 58458-2022.xlsx
+++ b/artfynd/A 58458-2022.xlsx
@@ -3693,10 +3693,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111595525</v>
+        <v>111595483</v>
       </c>
       <c r="B25" t="n">
-        <v>90151</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3705,38 +3705,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>366</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3744,10 +3749,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>578725.2392689644</v>
+        <v>578724.2708698318</v>
       </c>
       <c r="R25" t="n">
-        <v>6410706.376212179</v>
+        <v>6410783.051849495</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3794,7 +3799,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På gammal asplåga</t>
+          <t>6 blommor</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3822,10 +3827,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111595483</v>
+        <v>111595525</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>90151</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3834,43 +3839,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>366</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>578724.2708698318</v>
+        <v>578725.2392689644</v>
       </c>
       <c r="R26" t="n">
-        <v>6410783.051849495</v>
+        <v>6410706.376212179</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>6 blommor</t>
+          <t>På gammal asplåga</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 58458-2022.xlsx
+++ b/artfynd/A 58458-2022.xlsx
@@ -3693,10 +3693,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111595483</v>
+        <v>111595525</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>90151</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3705,43 +3705,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3749,10 +3744,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>578724.2708698318</v>
+        <v>578725.2392689644</v>
       </c>
       <c r="R25" t="n">
-        <v>6410783.051849495</v>
+        <v>6410706.376212179</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3799,7 +3794,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>6 blommor</t>
+          <t>På gammal asplåga</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3827,10 +3822,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111595525</v>
+        <v>111595483</v>
       </c>
       <c r="B26" t="n">
-        <v>90151</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3839,38 +3834,43 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>366</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>578725.2392689644</v>
+        <v>578724.2708698318</v>
       </c>
       <c r="R26" t="n">
-        <v>6410706.376212179</v>
+        <v>6410783.051849495</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>På gammal asplåga</t>
+          <t>6 blommor</t>
         </is>
       </c>
       <c r="AD26" t="b">
